--- a/medicine/Enfance/Jean-Luc_Cornette/Jean-Luc_Cornette.xlsx
+++ b/medicine/Enfance/Jean-Luc_Cornette/Jean-Luc_Cornette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Luc Cornette, né le 3 mai 1966 à Uccle (région de Bruxelles-Capitale), est un dessinateur et scénariste belge de bande dessinée.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Luc Cornette naît le 3 mai 1966 à Uccle, une commune bruxelloise[1]. Ancien élève de l'École supérieure des arts Saint-Luc de Bruxelles, Jean-Luc Cornette fait ses premières armes dans le journal Tintin reporter[2] en 1989 et la même année il fait son entrée au journal Spirou[3] en commençant par illustrer des rubriques rédactionnelles. Au milieu des années 1990, il travaille pour le magazine Brazil et dessine Sousoupe dans le fanzine Rêve-en-Bulles. En 1993, l'Association contre le cancer, une collaboration entre les centres de prévention des cancers de Flandre et des Pays-Bas, publie l'album 6 Histoires bien portantes, dans laquelle six dessinateurs créent une histoire en bande dessinée liée à la prévention du cancer. Parmi les auteurs contributeurs outre Jean-Luc Cornette figurent Daniel Alexandre et Dino Attanasio, Al Séverin, Laurent Letzer et Luc Cromheecke, Jean-Claude Salemi et Anne-Catherine Van Santen. Il dessine un court récit de 5 planches Ce n'est pas la mer à boire. Le livre est réalisé par le Centre belge de la bande dessinée et Tof Productions sous la direction de Jean-Claude De la Royère[4].
-Entre 1995 et 1997, il réalise la série jeunesse Les Enfants terribles aux éditions Casterman[1].
-Jean-Luc Cornette est aussi un scénariste pour d'autres auteurs. Chez Casterman, il écrit Robert contre Dracula et Robert contre la créature de la vase molle pour Christophe Hanze en 1997 et 1998. Toujours avec Hanze, il fait une adaptation en bande dessinée de la nouvelle d'Oscar Wilde Le Fantôme de Canterville aux éditions Delcourt en 2003. Avec Christian Durieux, il crée Columbia dans Spirou en 1999. Pour le même magazine, il collabore avec Karo à plusieurs courts récits et à un numéro spécial sur le Vietnam. Il écrit également le scénario des albums de Karo Câlinée sous X (Carabas, 2007) et Arthur et Janet (Drugstore, 2009). Aux éditions Glénat, Cornette écrit les scénarios de la série Red River Hôtel pour Michel Constant dans la collection « bulle noire » (2002-2005), Emmanuel Moynot (Démons, 2004-2005) et Éric Warnauts (Jean Polpol, 2004). Pour la maison d'édition L'École des Loisirs/Pastel, il dessine trois livres jeunesse, illustrés par lui-même ou par José Parrondo et Jean-Marc Rochette[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Luc Cornette naît le 3 mai 1966 à Uccle, une commune bruxelloise. Ancien élève de l'École supérieure des arts Saint-Luc de Bruxelles, Jean-Luc Cornette fait ses premières armes dans le journal Tintin reporter en 1989 et la même année il fait son entrée au journal Spirou en commençant par illustrer des rubriques rédactionnelles. Au milieu des années 1990, il travaille pour le magazine Brazil et dessine Sousoupe dans le fanzine Rêve-en-Bulles. En 1993, l'Association contre le cancer, une collaboration entre les centres de prévention des cancers de Flandre et des Pays-Bas, publie l'album 6 Histoires bien portantes, dans laquelle six dessinateurs créent une histoire en bande dessinée liée à la prévention du cancer. Parmi les auteurs contributeurs outre Jean-Luc Cornette figurent Daniel Alexandre et Dino Attanasio, Al Séverin, Laurent Letzer et Luc Cromheecke, Jean-Claude Salemi et Anne-Catherine Van Santen. Il dessine un court récit de 5 planches Ce n'est pas la mer à boire. Le livre est réalisé par le Centre belge de la bande dessinée et Tof Productions sous la direction de Jean-Claude De la Royère.
+Entre 1995 et 1997, il réalise la série jeunesse Les Enfants terribles aux éditions Casterman.
+Jean-Luc Cornette est aussi un scénariste pour d'autres auteurs. Chez Casterman, il écrit Robert contre Dracula et Robert contre la créature de la vase molle pour Christophe Hanze en 1997 et 1998. Toujours avec Hanze, il fait une adaptation en bande dessinée de la nouvelle d'Oscar Wilde Le Fantôme de Canterville aux éditions Delcourt en 2003. Avec Christian Durieux, il crée Columbia dans Spirou en 1999. Pour le même magazine, il collabore avec Karo à plusieurs courts récits et à un numéro spécial sur le Vietnam. Il écrit également le scénario des albums de Karo Câlinée sous X (Carabas, 2007) et Arthur et Janet (Drugstore, 2009). Aux éditions Glénat, Cornette écrit les scénarios de la série Red River Hôtel pour Michel Constant dans la collection « bulle noire » (2002-2005), Emmanuel Moynot (Démons, 2004-2005) et Éric Warnauts (Jean Polpol, 2004). Pour la maison d'édition L'École des Loisirs/Pastel, il dessine trois livres jeunesse, illustrés par lui-même ou par José Parrondo et Jean-Marc Rochette.
 </t>
         </is>
       </c>
@@ -546,39 +560,42 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Albums de bande dessinée
-Les Enfants terribles, Casterman, 3 vol., 1995-1997.
+          <t>Albums de bande dessinée</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les Enfants terribles, Casterman, 3 vol., 1995-1997.
 Le Fantôme des Canterville
 Le Fantôme des Canterville, Delcourt, coll. « Jeunesse », Paris, avril 2003Scénario : Jean-Luc Cornette - Dessin : Christophe Hanze - Couleurs : quadrichromie -  (ISBN 2840553244)
-Visite guidée, Les Humanoïdes associés, coll. « Tohu Bohu », 2001  (ISBN 2731614285)[6].
+Visite guidée, Les Humanoïdes associés, coll. « Tohu Bohu », 2001  (ISBN 2731614285).
 Columbia (scénario), avec Christian Durieux, Delcourt, coll. « Jeunesse », 2 vol., 2003-2004.
 Le Fantôme des Canterville (scénario), avec Christophe Hanze (dessin), Delcourt, coll. « Jeunesse », 2003.
-Jean-Polpol (scénario), avec Éric Warnauts (dessin), Glénat, coll. « Carrément 20/20 », 2004  (ISBN 2723443329)[12].
-Central Park[19],[20] (scénario), avec Christian Durieux (dessin), Dupuis, coll. « Expresso », 2005  (ISBN 2800136731).
-Morro Bay (scénario), avec Jeanlouis Boccar (dessin), Casterman, coll. « Un monde », 2005[21],[22],[23].
+Jean-Polpol (scénario), avec Éric Warnauts (dessin), Glénat, coll. « Carrément 20/20 », 2004  (ISBN 2723443329).
+Central Park, (scénario), avec Christian Durieux (dessin), Dupuis, coll. « Expresso », 2005  (ISBN 2800136731).
+Morro Bay (scénario), avec Jeanlouis Boccar (dessin), Casterman, coll. « Un monde », 2005.
 Les Passe-Murailles (scénario), avec Stéphane Oiry (dessin), Les Humanoïdes associés, 2 vol., 2005-2006.
 La Nuit du papillon, Glénat, coll. « Carrément BD », 2006  (ISBN 2723439585).
-Câlinée sous X[24], Carabas, janvier 2007Scénario : Jean-Luc Cornette - Dessin et couleurs : Karo -  (ISBN 9782351001776)
-Arthur et Janet : À fleur de peau[25], Drugstore, janvier 2007Scénario : Jean-Luc Cornette - Dessin et couleurs : Karo -  (ISBN 9782723467278)
-Les Gens urbains[26],[27], Quadrants, coll. « Azimut », avril 2010Scénario : Jean-Luc Cornette - Dessin : Maud Millecamps - Couleurs : Béatrice Constant -  (ISBN 978-2-302-01053-6)
+Câlinée sous X, Carabas, janvier 2007Scénario : Jean-Luc Cornette - Dessin et couleurs : Karo -  (ISBN 9782351001776)
+Arthur et Janet : À fleur de peau, Drugstore, janvier 2007Scénario : Jean-Luc Cornette - Dessin et couleurs : Karo -  (ISBN 9782723467278)
+Les Gens urbains Quadrants, coll. « Azimut », avril 2010Scénario : Jean-Luc Cornette - Dessin : Maud Millecamps - Couleurs : Béatrice Constant -  (ISBN 978-2-302-01053-6)
 Le Pygargue t. 1 : Tueur de femmes (scénario), avec Michel Constant (dessin), Quadrants, coll. « Boussole », 2011  (ISBN 9782302014985).
 Alexandre Pompidou (scénario avec Jerry Frissen), avec Nikola Witko (dessin), Le Lombard, 2 vol., 2012-2013.
 Jhen (scénario avec Jerry Frissen), avec Jean Pleyers (dessin)
  Draculea, Casterman, 2013.
 Les Portes de fer, Casterman, 2013.
-La Peste, Casterman, 2017[28].
-Le Sourire de Mao (scénario), avec Michel Constant (dessin), Futuropolis, 2013  (ISBN 9782754806022)[29],[30].
-Ziyi (scénario), avec Jürg (dessin), Scutella, 2013  (ISBN 9782918111122)[31],[32].
-Frida Kahlo (scénario), avec Flore Balthazar (dessin), Delcourt, coll. « Mirages », 2015  (ISBN 9782756039961)[33].
+La Peste, Casterman, 2017.
+Le Sourire de Mao (scénario), avec Michel Constant (dessin), Futuropolis, 2013  (ISBN 9782754806022),.
+Ziyi (scénario), avec Jürg (dessin), Scutella, 2013  (ISBN 9782918111122),.
+Frida Kahlo (scénario), avec Flore Balthazar (dessin), Delcourt, coll. « Mirages », 2015  (ISBN 9782756039961).
 Chlorophylle : Chlorophylle et le monstre des trois sources (scénario), avec René Hausman (dessin), Le Lombard, 2016  (ISBN 9782803637065).
-Un million d'éléphants (scénario), avec Vanyda (scénario et dessin), Futuropolis, 2017  (ISBN 9782754810777)[34],[35],[36].
-Klimt (scénario), avec Marc-Renier (dessin), Glénat, coll. « Les grands peintres », 2017  (ISBN 9782344003831)[37].
-La Perle, d'après le roman de John Steinbeck, Futuropolis, 2019  (ISBN 978-2-7548-1639-7)[38],[39].
-Kristina La reine-garçon[40], Futuropolis, Paris, 12 janvier 2022Scénario : Jean-Luc Cornette - Dessin et couleurs : Flore Balthazar -  (ISBN 978-2-7548-2820-8)
-Vénus à son miroir[41], Futuropolis, Paris, 19 octobre 2022Scénario : Jean-Luc Cornette - Dessin et couleurs : Matteo -  (ISBN 978-2-7548-2938-0)
-Le Feu et la glace, Futuropolis, coll. « Albums », Paris, 3 avril 2024Scénario : Jean-Luc Cornette - Dessin et couleurs : Jürg -  (ISBN 9782754833103)
-Collectifs
-6 Histoires bien portantes, Association contre le cancer, Bruxelles, 1993Scénario : collectif - Dessin : collectif dont Jean-Luc Cornette - Couleurs : quadrichromie -  (ISBN 2-87247-010-7),Participation : Ce n'est pas la mer à boire (5 planches).</t>
+Un million d'éléphants (scénario), avec Vanyda (scénario et dessin), Futuropolis, 2017  (ISBN 9782754810777).
+Klimt (scénario), avec Marc-Renier (dessin), Glénat, coll. « Les grands peintres », 2017  (ISBN 9782344003831).
+La Perle, d'après le roman de John Steinbeck, Futuropolis, 2019  (ISBN 978-2-7548-1639-7),.
+Kristina La reine-garçon, Futuropolis, Paris, 12 janvier 2022Scénario : Jean-Luc Cornette - Dessin et couleurs : Flore Balthazar -  (ISBN 978-2-7548-2820-8)
+Vénus à son miroir, Futuropolis, Paris, 19 octobre 2022Scénario : Jean-Luc Cornette - Dessin et couleurs : Matteo -  (ISBN 978-2-7548-2938-0)
+Le Feu et la glace, Futuropolis, coll. « Albums », Paris, 3 avril 2024Scénario : Jean-Luc Cornette - Dessin et couleurs : Jürg -  (ISBN 9782754833103)</t>
         </is>
       </c>
     </row>
@@ -603,12 +620,50 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Collectifs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>6 Histoires bien portantes, Association contre le cancer, Bruxelles, 1993Scénario : collectif - Dessin : collectif dont Jean-Luc Cornette - Couleurs : quadrichromie -  (ISBN 2-87247-010-7),Participation : Ce n'est pas la mer à boire (5 planches).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jean-Luc_Cornette</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Luc_Cornette</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Prix et récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1995 :  prix du Lion du meilleur jeune dessinateur décerné au Centre belge de la bande dessinée pour Maxime et Maximus[42].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1995 :  prix du Lion du meilleur jeune dessinateur décerné au Centre belge de la bande dessinée pour Maxime et Maximus.</t>
         </is>
       </c>
     </row>
